--- a/BANCO_DADOS_MENSAIS/Banco_Dados_Qualidade_02-26.xlsx
+++ b/BANCO_DADOS_MENSAIS/Banco_Dados_Qualidade_02-26.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC3"/>
+  <dimension ref="A1:BG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,279 +422,299 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Data Registro</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Hora Saída</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Inspetor</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Inspetor Responsável</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Data Chegada</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Hora Entrada</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Data Produção</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>OP</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Cliente</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Descrição</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Transportadora</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Pedido</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Codigo</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Qtd Total</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Peças produzidas</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Aprovado</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Reprovado</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Tipo Refugo</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Sobra Medida 1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Sobra Medida 2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Maquina</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Operador</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Cód. Castanha</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>Bat. Esq</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>Bat. Dir</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>Emp. Esq</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>Emp. Dir</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>Obs</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Aprovação Especial</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>Fuso Retificado</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Fuso Retificado Adaptado</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>Castanha Retificada Adaptada</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>Fuso Laminado</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>Fuso Laminado PRECISÃO</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>Fuso Laminado Adaptado</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>Castanha Laminada Adaptada</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>Guia</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>Bloco</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>Usinagem</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>Inspeção</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>Desenho</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>Programação CNC</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>Produção</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>Gerar op</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>PCP</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Medida não conforme</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>Usinagem não conforme</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>Acabamento Ruim</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>Concentricidade</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>Craterizada</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>Estética</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>Rebarba</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>Faltou Chaveta</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>Desenho Errado</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>Código Castanha</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>Motivo_Usinagem</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>Motivo_Medida</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>Motivo_Outros</t>
         </is>
       </c>
     </row>
@@ -840,6 +848,10 @@
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -877,10 +889,8 @@
           <t>14/02/2026</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>04711301003</t>
-        </is>
+      <c r="H3" t="n">
+        <v>4711301003</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1001,6 +1011,279 @@
           <t>X</t>
         </is>
       </c>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Alexandre</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>4753001001</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>MECÂNICA INDUSTRIAL M.N. LTDA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> | </t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Alexandre</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>4758601001</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>VCI BRASIL INDUSTRIA E COMERCIO DE EMBALAGENS LTDA</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> | </t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Alexandre</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>04755001004</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>AUMAQRS LTDA</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>RETRABALHO</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>sddsdsd | dsdsdsd</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="BE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
